--- a/data/case1/2/details_14.xlsx
+++ b/data/case1/2/details_14.xlsx
@@ -58,8 +58,8 @@
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
@@ -70,9 +70,9 @@
     <col min="12" max="12" width="3.140625" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
-    <col min="15" max="15" width="5.7109375" customWidth="true"/>
-    <col min="16" max="16" width="5.7109375" customWidth="true"/>
-    <col min="17" max="17" width="5.7109375" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="4.7109375" customWidth="true"/>
+    <col min="17" max="17" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -83,49 +83,49 @@
         <v>5</v>
       </c>
       <c r="C1" s="0">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0">
+        <v>25</v>
+      </c>
+      <c r="F1" s="0">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1" s="0">
         <v>22</v>
       </c>
-      <c r="D1" s="0">
+      <c r="I1" s="0">
+        <v>16</v>
+      </c>
+      <c r="J1" s="0">
         <v>19</v>
       </c>
-      <c r="E1" s="0">
-        <v>29</v>
-      </c>
-      <c r="F1" s="0">
-        <v>7</v>
-      </c>
-      <c r="G1" s="0">
-        <v>11</v>
-      </c>
-      <c r="H1" s="0">
-        <v>30</v>
-      </c>
-      <c r="I1" s="0">
-        <v>17</v>
-      </c>
-      <c r="J1" s="0">
-        <v>31</v>
-      </c>
       <c r="K1" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M1" s="0">
-        <v>0.012999999999999999</v>
+        <v>0.040999999999999995</v>
       </c>
       <c r="N1" s="0">
-        <v>0.081000000000000003</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="O1" s="0">
-        <v>0.048000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="P1" s="0">
-        <v>0.097000000000000003</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.069999999999999993</v>
       </c>
     </row>
   </sheetData>
